--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fasl-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fasl-Fas.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fasl</t>
+  </si>
+  <si>
+    <t>Fas</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Fasl</t>
-  </si>
-  <si>
-    <t>Fas</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08057133333333333</v>
+        <v>0.01577866666666667</v>
       </c>
       <c r="H2">
-        <v>0.241714</v>
+        <v>0.047336</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.856959</v>
+        <v>19.58374133333333</v>
       </c>
       <c r="N2">
-        <v>77.570877</v>
+        <v>58.751224</v>
       </c>
       <c r="O2">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="P2">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="Q2">
-        <v>2.083329662575333</v>
+        <v>0.3090053265848889</v>
       </c>
       <c r="R2">
-        <v>18.749966963178</v>
+        <v>2.781047939264</v>
       </c>
       <c r="S2">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="T2">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08057133333333333</v>
+        <v>0.01577866666666667</v>
       </c>
       <c r="H3">
-        <v>0.241714</v>
+        <v>0.047336</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.657374333333332</v>
+        <v>6.657374333333333</v>
       </c>
       <c r="N3">
         <v>19.972123</v>
       </c>
       <c r="O3">
-        <v>0.189522064110691</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="P3">
-        <v>0.1895220641106909</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="Q3">
-        <v>0.5363935265357777</v>
+        <v>0.1050444904808889</v>
       </c>
       <c r="R3">
-        <v>4.827541738821999</v>
+        <v>0.945400414328</v>
       </c>
       <c r="S3">
-        <v>0.189522064110691</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="T3">
-        <v>0.1895220641106909</v>
+        <v>0.2236437337398222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08057133333333333</v>
+        <v>0.01577866666666667</v>
       </c>
       <c r="H4">
-        <v>0.241714</v>
+        <v>0.047336</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.612839666666666</v>
+        <v>3.526650333333333</v>
       </c>
       <c r="N4">
-        <v>7.838519</v>
+        <v>10.579951</v>
       </c>
       <c r="O4">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="P4">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="Q4">
-        <v>0.2105199757295555</v>
+        <v>0.05564584005955555</v>
       </c>
       <c r="R4">
-        <v>1.894679781566</v>
+        <v>0.500812560536</v>
       </c>
       <c r="S4">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="T4">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
     </row>
   </sheetData>
